--- a/Base de Dados_Montagem Final_H23_2025.xlsx
+++ b/Base de Dados_Montagem Final_H23_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\H23 - Montagem Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D32743-9FC7-40A8-95E9-CB8738796A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459001FD-CD23-423B-B463-287D4A13BC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD_H23" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5160" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="642">
   <si>
     <t>Data Recebimento</t>
   </si>
@@ -2221,6 +2221,18 @@
   </si>
   <si>
     <t xml:space="preserve">Bateria Fraca </t>
+  </si>
+  <si>
+    <t>Arranque Pesado</t>
+  </si>
+  <si>
+    <t>Dificuldade na partida</t>
+  </si>
+  <si>
+    <t>S/N Magnetos Originais</t>
+  </si>
+  <si>
+    <t>0117 / 0130</t>
   </si>
 </sst>
 </file>
@@ -2353,7 +2365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2405,6 +2417,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2450,7 +2468,7 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2624,6 +2642,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bom" xfId="3" builtinId="26"/>
@@ -2632,7 +2662,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="4" builtinId="27"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2645,31 +2675,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2830,426 +2840,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3629,43 +3219,43 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:G21"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.42578125" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" customWidth="1"/>
+    <col min="19" max="19" width="15.1796875" customWidth="1"/>
+    <col min="20" max="20" width="15.1796875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1796875" customWidth="1"/>
+    <col min="25" max="25" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.453125" customWidth="1"/>
+    <col min="27" max="27" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="10" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
@@ -3698,7 +3288,7 @@
       <c r="Z1" s="59"/>
       <c r="AA1" s="59"/>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -3781,7 +3371,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -3864,7 +3454,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -3937,7 +3527,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -4010,7 +3600,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -4083,7 +3673,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -4156,7 +3746,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -4229,7 +3819,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -4302,7 +3892,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -4375,7 +3965,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -4448,7 +4038,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -4521,7 +4111,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -4537,7 +4127,7 @@
       <c r="E13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="66" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="22" t="s">
@@ -4594,7 +4184,7 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -4667,7 +4257,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -4740,7 +4330,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -4756,7 +4346,7 @@
       <c r="E16" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="66" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="22" t="s">
@@ -4813,7 +4403,7 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="6"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -4886,7 +4476,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="6"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -4959,7 +4549,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -5032,7 +4622,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -5105,7 +4695,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -5151,11 +4741,11 @@
       <c r="O21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>43</v>
+      <c r="P21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="65">
+        <v>45846</v>
       </c>
       <c r="R21" s="20" t="s">
         <v>43</v>
@@ -5178,7 +4768,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -5194,7 +4784,7 @@
       <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="66" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -5221,7 +4811,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -5237,7 +4827,7 @@
       <c r="E23" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="66" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -5264,7 +4854,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -5280,7 +4870,7 @@
       <c r="E24" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="66" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -5307,7 +4897,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -5323,7 +4913,7 @@
       <c r="E25" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="66" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -5350,7 +4940,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -5385,7 +4975,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -5428,20 +5018,20 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B1048576 B1:B22">
-    <cfRule type="duplicateValues" dxfId="66" priority="514"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="514"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E1048576 E1:E22">
-    <cfRule type="duplicateValues" dxfId="63" priority="520"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="523"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="520"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="523"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
@@ -5465,44 +5055,44 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:X354"/>
+  <dimension ref="A1:X356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="S353" sqref="S353:S354"/>
+      <selection pane="bottomLeft" activeCell="R354" sqref="R354:S356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="65" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.81640625" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="20" max="20" width="26.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
         <v>87</v>
       </c>
@@ -5530,7 +5120,7 @@
       <c r="W1" s="60"/>
       <c r="X1" s="60"/>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
@@ -5604,7 +5194,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="23">
         <v>7</v>
       </c>
@@ -5664,7 +5254,7 @@
       </c>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>7</v>
       </c>
@@ -5723,7 +5313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>7</v>
       </c>
@@ -5782,7 +5372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>7</v>
       </c>
@@ -5841,7 +5431,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>7</v>
       </c>
@@ -5900,7 +5490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -5959,7 +5549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -6018,7 +5608,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -6077,7 +5667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -6136,7 +5726,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>7</v>
       </c>
@@ -6195,7 +5785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>7</v>
       </c>
@@ -6254,7 +5844,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>7</v>
       </c>
@@ -6313,7 +5903,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>7</v>
       </c>
@@ -6372,7 +5962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -6431,7 +6021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
         <v>7</v>
       </c>
@@ -6490,7 +6080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>7</v>
       </c>
@@ -6549,7 +6139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="23">
         <v>7</v>
       </c>
@@ -6608,7 +6198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="23">
         <v>7</v>
       </c>
@@ -6667,7 +6257,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="23">
         <v>7</v>
       </c>
@@ -6726,7 +6316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="23">
         <v>7</v>
       </c>
@@ -6785,7 +6375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="23">
         <v>7</v>
       </c>
@@ -6844,7 +6434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="23">
         <v>7</v>
       </c>
@@ -6903,7 +6493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="23">
         <v>8</v>
       </c>
@@ -6947,7 +6537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="23">
         <v>8</v>
       </c>
@@ -6991,7 +6581,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="23">
         <v>8</v>
       </c>
@@ -7035,7 +6625,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="23">
         <v>8</v>
       </c>
@@ -7079,7 +6669,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="23">
         <v>8</v>
       </c>
@@ -7123,7 +6713,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="23">
         <v>8</v>
       </c>
@@ -7182,7 +6772,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="23">
         <v>8</v>
       </c>
@@ -7241,7 +6831,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="23">
         <v>8</v>
       </c>
@@ -7300,7 +6890,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="23">
         <v>8</v>
       </c>
@@ -7359,7 +6949,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="23">
         <v>8</v>
       </c>
@@ -7418,7 +7008,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="23">
         <v>8</v>
       </c>
@@ -7477,7 +7067,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="23">
         <v>8</v>
       </c>
@@ -7536,7 +7126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="23">
         <v>8</v>
       </c>
@@ -7595,7 +7185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="23">
         <v>8</v>
       </c>
@@ -7654,7 +7244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="23">
         <v>8</v>
       </c>
@@ -7713,7 +7303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="23">
         <v>8</v>
       </c>
@@ -7772,7 +7362,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="23">
         <v>8</v>
       </c>
@@ -7831,7 +7421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="23">
         <v>8</v>
       </c>
@@ -7890,7 +7480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -7949,7 +7539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <v>10</v>
       </c>
@@ -8008,7 +7598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="23">
         <v>10</v>
       </c>
@@ -8067,7 +7657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="23">
         <v>10</v>
       </c>
@@ -8123,7 +7713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="23">
         <v>10</v>
       </c>
@@ -8167,7 +7757,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="23">
         <v>10</v>
       </c>
@@ -8211,7 +7801,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="23">
         <v>10</v>
       </c>
@@ -8255,7 +7845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="23">
         <v>10</v>
       </c>
@@ -8299,7 +7889,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="23">
         <v>10</v>
       </c>
@@ -8355,7 +7945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="23">
         <v>10</v>
       </c>
@@ -8399,7 +7989,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="23">
         <v>10</v>
       </c>
@@ -8443,7 +8033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="23">
         <v>10</v>
       </c>
@@ -8487,7 +8077,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="23">
         <v>10</v>
       </c>
@@ -8546,7 +8136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="23">
         <v>10</v>
       </c>
@@ -8605,7 +8195,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="23">
         <v>10</v>
       </c>
@@ -8661,7 +8251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="23">
         <v>10</v>
       </c>
@@ -8705,7 +8295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="23">
         <v>10</v>
       </c>
@@ -8761,7 +8351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="23">
         <v>10</v>
       </c>
@@ -8817,7 +8407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="23">
         <v>10</v>
       </c>
@@ -8876,7 +8466,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="23">
         <v>10</v>
       </c>
@@ -8932,7 +8522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="23">
         <v>10</v>
       </c>
@@ -8991,7 +8581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="23">
         <v>7</v>
       </c>
@@ -9047,7 +8637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="23">
         <v>7</v>
       </c>
@@ -9103,7 +8693,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="23">
         <v>7</v>
       </c>
@@ -9159,7 +8749,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="23">
         <v>8</v>
       </c>
@@ -9218,7 +8808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="23">
         <v>8</v>
       </c>
@@ -9277,7 +8867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="23">
         <v>8</v>
       </c>
@@ -9336,7 +8926,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="23">
         <v>8</v>
       </c>
@@ -9383,7 +8973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="23">
         <v>8</v>
       </c>
@@ -9442,7 +9032,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="23">
         <v>8</v>
       </c>
@@ -9489,7 +9079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="23">
         <v>8</v>
       </c>
@@ -9536,7 +9126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="23">
         <v>8</v>
       </c>
@@ -9583,7 +9173,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="23">
         <v>8</v>
       </c>
@@ -9630,7 +9220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="23">
         <v>8</v>
       </c>
@@ -9677,7 +9267,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="23">
         <v>8</v>
       </c>
@@ -9724,7 +9314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="23">
         <v>9</v>
       </c>
@@ -9783,7 +9373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="23">
         <v>9</v>
       </c>
@@ -9842,7 +9432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="23">
         <v>9</v>
       </c>
@@ -9901,7 +9491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="23">
         <v>9</v>
       </c>
@@ -9960,7 +9550,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="23">
         <v>9</v>
       </c>
@@ -10019,7 +9609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="23">
         <v>9</v>
       </c>
@@ -10078,7 +9668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="23">
         <v>9</v>
       </c>
@@ -10137,7 +9727,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="23">
         <v>9</v>
       </c>
@@ -10196,7 +9786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="23">
         <v>9</v>
       </c>
@@ -10255,7 +9845,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="23">
         <v>9</v>
       </c>
@@ -10314,7 +9904,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="23">
         <v>9</v>
       </c>
@@ -10373,7 +9963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="23">
         <v>9</v>
       </c>
@@ -10432,7 +10022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="23">
         <v>9</v>
       </c>
@@ -10491,7 +10081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="23">
         <v>9</v>
       </c>
@@ -10538,7 +10128,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="23">
         <v>9</v>
       </c>
@@ -10585,7 +10175,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="23">
         <v>9</v>
       </c>
@@ -10644,7 +10234,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="23">
         <v>9</v>
       </c>
@@ -10703,7 +10293,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="23">
         <v>9</v>
       </c>
@@ -10762,7 +10352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="23">
         <v>9</v>
       </c>
@@ -10821,7 +10411,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="23">
         <v>9</v>
       </c>
@@ -10868,7 +10458,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="23">
         <v>9</v>
       </c>
@@ -10927,7 +10517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="23">
         <v>9</v>
       </c>
@@ -10986,7 +10576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="23">
         <v>9</v>
       </c>
@@ -11045,7 +10635,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="23">
         <v>9</v>
       </c>
@@ -11104,7 +10694,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="23">
         <v>9</v>
       </c>
@@ -11163,7 +10753,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="23">
         <v>9</v>
       </c>
@@ -11210,7 +10800,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="23">
         <v>9</v>
       </c>
@@ -11257,7 +10847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="23">
         <v>9</v>
       </c>
@@ -11316,7 +10906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="23">
         <v>9</v>
       </c>
@@ -11375,7 +10965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="23">
         <v>9</v>
       </c>
@@ -11434,7 +11024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="23">
         <v>9</v>
       </c>
@@ -11481,7 +11071,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="23">
         <v>10</v>
       </c>
@@ -11540,7 +11130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="23">
         <v>10</v>
       </c>
@@ -11599,7 +11189,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="23">
         <v>10</v>
       </c>
@@ -11646,7 +11236,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="23">
         <v>10</v>
       </c>
@@ -11705,7 +11295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="23">
         <v>10</v>
       </c>
@@ -11764,7 +11354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="23">
         <v>10</v>
       </c>
@@ -11823,7 +11413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="23">
         <v>10</v>
       </c>
@@ -11870,7 +11460,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="23">
         <v>10</v>
       </c>
@@ -11929,7 +11519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="23">
         <v>10</v>
       </c>
@@ -11976,7 +11566,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="23">
         <v>10</v>
       </c>
@@ -12035,7 +11625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="23">
         <v>7</v>
       </c>
@@ -12094,7 +11684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="23">
         <v>7</v>
       </c>
@@ -12153,7 +11743,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="23">
         <v>7</v>
       </c>
@@ -12212,7 +11802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="23">
         <v>7</v>
       </c>
@@ -12271,7 +11861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="23">
         <v>7</v>
       </c>
@@ -12330,7 +11920,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="23">
         <v>12</v>
       </c>
@@ -12389,7 +11979,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="23">
         <v>12</v>
       </c>
@@ -12448,7 +12038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="23">
         <v>12</v>
       </c>
@@ -12507,7 +12097,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="23">
         <v>12</v>
       </c>
@@ -12566,7 +12156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="23">
         <v>12</v>
       </c>
@@ -12625,7 +12215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="23">
         <v>12</v>
       </c>
@@ -12684,7 +12274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="23">
         <v>12</v>
       </c>
@@ -12743,7 +12333,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="23">
         <v>12</v>
       </c>
@@ -12802,7 +12392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="23">
         <v>12</v>
       </c>
@@ -12861,7 +12451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="23">
         <v>12</v>
       </c>
@@ -12920,7 +12510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="23">
         <v>12</v>
       </c>
@@ -12979,7 +12569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="23">
         <v>12</v>
       </c>
@@ -13038,7 +12628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="23">
         <v>12</v>
       </c>
@@ -13097,7 +12687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="23">
         <v>12</v>
       </c>
@@ -13156,7 +12746,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="23">
         <v>12</v>
       </c>
@@ -13215,7 +12805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="23">
         <v>12</v>
       </c>
@@ -13274,7 +12864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="23">
         <v>12</v>
       </c>
@@ -13333,7 +12923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="23">
         <v>12</v>
       </c>
@@ -13392,7 +12982,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="23">
         <v>11</v>
       </c>
@@ -13439,7 +13029,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="23">
         <v>12</v>
       </c>
@@ -13498,7 +13088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="23">
         <v>12</v>
       </c>
@@ -13557,7 +13147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="23">
         <v>12</v>
       </c>
@@ -13599,7 +13189,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="23">
         <v>12</v>
       </c>
@@ -13646,7 +13236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="23">
         <v>12</v>
       </c>
@@ -13705,7 +13295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="23">
         <v>7</v>
       </c>
@@ -13764,7 +13354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="23">
         <v>7</v>
       </c>
@@ -13823,7 +13413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="23">
         <v>7</v>
       </c>
@@ -13882,7 +13472,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="23">
         <v>7</v>
       </c>
@@ -13941,7 +13531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="23">
         <v>7</v>
       </c>
@@ -14000,7 +13590,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="23">
         <v>7</v>
       </c>
@@ -14059,7 +13649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="23">
         <v>7</v>
       </c>
@@ -14118,7 +13708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="23">
         <v>12</v>
       </c>
@@ -14177,7 +13767,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" s="23">
         <v>13</v>
       </c>
@@ -14221,7 +13811,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" s="23">
         <v>13</v>
       </c>
@@ -14265,7 +13855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="23">
         <v>13</v>
       </c>
@@ -14309,7 +13899,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" s="23">
         <v>13</v>
       </c>
@@ -14353,7 +13943,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="23">
         <v>13</v>
       </c>
@@ -14397,7 +13987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" s="23">
         <v>13</v>
       </c>
@@ -14441,7 +14031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" s="23">
         <v>13</v>
       </c>
@@ -14485,7 +14075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" s="23">
         <v>13</v>
       </c>
@@ -14529,7 +14119,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" s="23">
         <v>13</v>
       </c>
@@ -14573,7 +14163,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" s="23">
         <v>13</v>
       </c>
@@ -14617,7 +14207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" s="23">
         <v>13</v>
       </c>
@@ -14661,7 +14251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" s="23">
         <v>13</v>
       </c>
@@ -14705,7 +14295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" s="23">
         <v>13</v>
       </c>
@@ -14749,7 +14339,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" s="23">
         <v>13</v>
       </c>
@@ -14799,7 +14389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" s="23">
         <v>13</v>
       </c>
@@ -14849,7 +14439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="23">
         <v>13</v>
       </c>
@@ -14896,7 +14486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" s="23">
         <v>13</v>
       </c>
@@ -14943,7 +14533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" s="23">
         <v>13</v>
       </c>
@@ -14987,7 +14577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="23">
         <v>13</v>
       </c>
@@ -15031,7 +14621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="23">
         <v>13</v>
       </c>
@@ -15075,7 +14665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="23">
         <v>15</v>
       </c>
@@ -15119,7 +14709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="23">
         <v>15</v>
       </c>
@@ -15178,7 +14768,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="23">
         <v>15</v>
       </c>
@@ -15237,7 +14827,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" s="23">
         <v>15</v>
       </c>
@@ -15296,7 +14886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="23">
         <v>15</v>
       </c>
@@ -15340,7 +14930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="23">
         <v>15</v>
       </c>
@@ -15384,7 +14974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="23">
         <v>13</v>
       </c>
@@ -15431,7 +15021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A183" s="23">
         <v>7</v>
       </c>
@@ -15481,7 +15071,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="23">
         <v>6</v>
       </c>
@@ -15531,7 +15121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" s="23">
         <v>10</v>
       </c>
@@ -15578,7 +15168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="23">
         <v>9</v>
       </c>
@@ -15625,7 +15215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" s="23">
         <v>9</v>
       </c>
@@ -15672,7 +15262,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="23">
         <v>9</v>
       </c>
@@ -15719,7 +15309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="23">
         <v>9</v>
       </c>
@@ -15766,7 +15356,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="23">
         <v>15</v>
       </c>
@@ -15813,7 +15403,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" s="23">
         <v>15</v>
       </c>
@@ -15860,7 +15450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" s="23">
         <v>15</v>
       </c>
@@ -15907,7 +15497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" s="23">
         <v>15</v>
       </c>
@@ -15954,7 +15544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" s="23">
         <v>15</v>
       </c>
@@ -16001,7 +15591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195" s="23">
         <v>15</v>
       </c>
@@ -16048,7 +15638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" s="23">
         <v>15</v>
       </c>
@@ -16095,7 +15685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197" s="23">
         <v>15</v>
       </c>
@@ -16142,7 +15732,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" s="23">
         <v>8</v>
       </c>
@@ -16189,7 +15779,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" s="23">
         <v>15</v>
       </c>
@@ -16236,7 +15826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200" s="23">
         <v>15</v>
       </c>
@@ -16283,7 +15873,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" s="23">
         <v>15</v>
       </c>
@@ -16330,7 +15920,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A202" s="23">
         <v>15</v>
       </c>
@@ -16377,7 +15967,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A203" s="23">
         <v>15</v>
       </c>
@@ -16424,7 +16014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A204" s="23">
         <v>15</v>
       </c>
@@ -16471,7 +16061,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A205" s="23">
         <v>8</v>
       </c>
@@ -16515,7 +16105,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A206" s="23">
         <v>8</v>
       </c>
@@ -16559,7 +16149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A207" s="23">
         <v>8</v>
       </c>
@@ -16612,7 +16202,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A208" s="23">
         <v>8</v>
       </c>
@@ -16659,7 +16249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A209" s="23">
         <v>8</v>
       </c>
@@ -16706,7 +16296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A210" s="23">
         <v>8</v>
       </c>
@@ -16753,7 +16343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A211" s="23">
         <v>8</v>
       </c>
@@ -16800,7 +16390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A212" s="23">
         <v>8</v>
       </c>
@@ -16847,7 +16437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A213" s="23">
         <v>8</v>
       </c>
@@ -16894,7 +16484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A214" s="23">
         <v>12</v>
       </c>
@@ -16941,7 +16531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A215" s="23">
         <v>12</v>
       </c>
@@ -16988,7 +16578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216" s="23">
         <v>12</v>
       </c>
@@ -17032,7 +16622,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217" s="23">
         <v>12</v>
       </c>
@@ -17079,7 +16669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A218" s="23">
         <v>9</v>
       </c>
@@ -17126,7 +16716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" s="23">
         <v>9</v>
       </c>
@@ -17173,7 +16763,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A220" s="23">
         <v>9</v>
       </c>
@@ -17220,7 +16810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A221" s="23">
         <v>12</v>
       </c>
@@ -17264,7 +16854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222" s="23">
         <v>12</v>
       </c>
@@ -17308,7 +16898,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A223" s="23">
         <v>12</v>
       </c>
@@ -17352,7 +16942,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A224" s="23">
         <v>10</v>
       </c>
@@ -17396,7 +16986,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225" s="23">
         <v>10</v>
       </c>
@@ -17440,7 +17030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226" s="23">
         <v>10</v>
       </c>
@@ -17484,7 +17074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227" s="23">
         <v>10</v>
       </c>
@@ -17528,7 +17118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228" s="23">
         <v>10</v>
       </c>
@@ -17572,7 +17162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229" s="23">
         <v>10</v>
       </c>
@@ -17616,7 +17206,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230" s="23">
         <v>10</v>
       </c>
@@ -17660,7 +17250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" s="23">
         <v>10</v>
       </c>
@@ -17704,7 +17294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232" s="23">
         <v>10</v>
       </c>
@@ -17748,7 +17338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233" s="23">
         <v>11</v>
       </c>
@@ -17787,7 +17377,7 @@
       </c>
       <c r="S233" s="44"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234" s="23">
         <v>11</v>
       </c>
@@ -17834,7 +17424,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235" s="23">
         <v>11</v>
       </c>
@@ -17878,7 +17468,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236" s="23">
         <v>11</v>
       </c>
@@ -17922,7 +17512,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237" s="23">
         <v>11</v>
       </c>
@@ -17966,7 +17556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238" s="23">
         <v>11</v>
       </c>
@@ -18010,7 +17600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239" s="23">
         <v>11</v>
       </c>
@@ -18054,7 +17644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240" s="23">
         <v>11</v>
       </c>
@@ -18098,7 +17688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A241" s="23">
         <v>11</v>
       </c>
@@ -18142,7 +17732,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A242" s="23">
         <v>11</v>
       </c>
@@ -18186,7 +17776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A243" s="23">
         <v>11</v>
       </c>
@@ -18230,7 +17820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A244" s="23">
         <v>11</v>
       </c>
@@ -18274,7 +17864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A245" s="23">
         <v>11</v>
       </c>
@@ -18318,7 +17908,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A246" s="23">
         <v>11</v>
       </c>
@@ -18362,7 +17952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A247" s="23">
         <v>11</v>
       </c>
@@ -18406,7 +17996,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A248" s="23">
         <v>11</v>
       </c>
@@ -18450,7 +18040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A249" s="23">
         <v>11</v>
       </c>
@@ -18494,7 +18084,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A250" s="23">
         <v>11</v>
       </c>
@@ -18538,7 +18128,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A251" s="23">
         <v>9</v>
       </c>
@@ -18585,7 +18175,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A252" s="23">
         <v>9</v>
       </c>
@@ -18632,7 +18222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A253" s="23">
         <v>9</v>
       </c>
@@ -18679,7 +18269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A254" s="23">
         <v>9</v>
       </c>
@@ -18726,7 +18316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A255" s="23">
         <v>9</v>
       </c>
@@ -18773,7 +18363,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A256" s="23">
         <v>9</v>
       </c>
@@ -18820,7 +18410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A257" s="23">
         <v>13</v>
       </c>
@@ -18867,7 +18457,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258" s="23">
         <v>13</v>
       </c>
@@ -18914,7 +18504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A259" s="23">
         <v>13</v>
       </c>
@@ -18961,7 +18551,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A260" s="23">
         <v>13</v>
       </c>
@@ -19008,7 +18598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A261" s="23">
         <v>13</v>
       </c>
@@ -19055,7 +18645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A262" s="23">
         <v>13</v>
       </c>
@@ -19102,7 +18692,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A263" s="23">
         <v>13</v>
       </c>
@@ -19149,7 +18739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A264" s="23">
         <v>13</v>
       </c>
@@ -19196,7 +18786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A265" s="23">
         <v>13</v>
       </c>
@@ -19243,7 +18833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A266" s="23">
         <v>13</v>
       </c>
@@ -19290,7 +18880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A267" s="23">
         <v>13</v>
       </c>
@@ -19337,7 +18927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A268" s="23">
         <v>13</v>
       </c>
@@ -19381,7 +18971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A269" s="23">
         <v>13</v>
       </c>
@@ -19428,7 +19018,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="23">
         <v>15</v>
       </c>
@@ -19475,7 +19065,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A271" s="23">
         <v>11</v>
       </c>
@@ -19519,7 +19109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A272" s="23">
         <v>11</v>
       </c>
@@ -19563,7 +19153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A273" s="23">
         <v>11</v>
       </c>
@@ -19607,7 +19197,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A274" s="23">
         <v>11</v>
       </c>
@@ -19651,7 +19241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A275" s="23">
         <v>11</v>
       </c>
@@ -19695,7 +19285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A276" s="23">
         <v>11</v>
       </c>
@@ -19739,7 +19329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A277" s="23">
         <v>11</v>
       </c>
@@ -19783,7 +19373,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A278" s="23">
         <v>11</v>
       </c>
@@ -19827,7 +19417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A279" s="23">
         <v>11</v>
       </c>
@@ -19871,7 +19461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A280" s="23">
         <v>13</v>
       </c>
@@ -19915,7 +19505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A281" s="23">
         <v>13</v>
       </c>
@@ -19959,7 +19549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A282" s="23">
         <v>13</v>
       </c>
@@ -20003,7 +19593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A283" s="23">
         <v>15</v>
       </c>
@@ -20047,7 +19637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A284" s="23">
         <v>15</v>
       </c>
@@ -20091,7 +19681,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A285" s="23">
         <v>15</v>
       </c>
@@ -20135,7 +19725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A286" s="23">
         <v>15</v>
       </c>
@@ -20179,7 +19769,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A287" s="23">
         <v>15</v>
       </c>
@@ -20223,7 +19813,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A288" s="23">
         <v>15</v>
       </c>
@@ -20267,7 +19857,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A289" s="23">
         <v>15</v>
       </c>
@@ -20311,7 +19901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A290" s="23">
         <v>15</v>
       </c>
@@ -20355,7 +19945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A291" s="23">
         <v>15</v>
       </c>
@@ -20399,7 +19989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A292" s="23">
         <v>11</v>
       </c>
@@ -20443,7 +20033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A293" s="23">
         <v>11</v>
       </c>
@@ -20487,7 +20077,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A294" s="23">
         <v>11</v>
       </c>
@@ -20531,7 +20121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A295" s="23">
         <v>11</v>
       </c>
@@ -20575,7 +20165,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A296" s="23">
         <v>11</v>
       </c>
@@ -20619,7 +20209,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A297" s="23">
         <v>11</v>
       </c>
@@ -20663,7 +20253,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A298" s="23">
         <v>11</v>
       </c>
@@ -20707,7 +20297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A299" s="23">
         <v>11</v>
       </c>
@@ -20751,7 +20341,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A300" s="23">
         <v>11</v>
       </c>
@@ -20795,7 +20385,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A301" s="23">
         <v>11</v>
       </c>
@@ -20839,7 +20429,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A302" s="23">
         <v>11</v>
       </c>
@@ -20878,7 +20468,7 @@
       </c>
       <c r="S302" s="44"/>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A303" s="23">
         <v>11</v>
       </c>
@@ -20922,7 +20512,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A304" s="23">
         <v>15</v>
       </c>
@@ -20966,7 +20556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A305" s="23">
         <v>15</v>
       </c>
@@ -21010,7 +20600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A306" s="23">
         <v>15</v>
       </c>
@@ -21054,7 +20644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A307" s="23">
         <v>9</v>
       </c>
@@ -21101,7 +20691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A308" s="23">
         <v>9</v>
       </c>
@@ -21148,7 +20738,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A309" s="23">
         <v>15</v>
       </c>
@@ -21192,7 +20782,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A310" s="23">
         <v>15</v>
       </c>
@@ -21236,7 +20826,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A311" s="23">
         <v>16</v>
       </c>
@@ -21280,7 +20870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A312" s="23">
         <v>16</v>
       </c>
@@ -21324,7 +20914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A313" s="23">
         <v>16</v>
       </c>
@@ -21368,7 +20958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A314" s="23">
         <v>16</v>
       </c>
@@ -21412,7 +21002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A315" s="23">
         <v>16</v>
       </c>
@@ -21456,7 +21046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A316" s="23">
         <v>15</v>
       </c>
@@ -21500,7 +21090,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A317" s="23">
         <v>15</v>
       </c>
@@ -21544,7 +21134,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A318" s="23">
         <v>15</v>
       </c>
@@ -21588,7 +21178,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A319" s="23">
         <v>10</v>
       </c>
@@ -21632,7 +21222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A320" s="23">
         <v>10</v>
       </c>
@@ -21676,7 +21266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A321" s="23">
         <v>10</v>
       </c>
@@ -21720,7 +21310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A322" s="23">
         <v>17</v>
       </c>
@@ -21773,7 +21363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A323" s="23">
         <v>17</v>
       </c>
@@ -21817,7 +21407,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A324" s="23">
         <v>17</v>
       </c>
@@ -21861,7 +21451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A325" s="22">
         <v>14</v>
       </c>
@@ -21905,7 +21495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A326" s="22">
         <v>14</v>
       </c>
@@ -21949,7 +21539,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A327" s="22">
         <v>14</v>
       </c>
@@ -21993,7 +21583,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A328" s="22">
         <v>14</v>
       </c>
@@ -22037,7 +21627,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A329" s="22">
         <v>14</v>
       </c>
@@ -22081,7 +21671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A330" s="23">
         <v>18</v>
       </c>
@@ -22125,7 +21715,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A331" s="23">
         <v>18</v>
       </c>
@@ -22169,7 +21759,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A332" s="23">
         <v>18</v>
       </c>
@@ -22213,7 +21803,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A333" s="23">
         <v>18</v>
       </c>
@@ -22257,7 +21847,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A334" s="23">
         <v>18</v>
       </c>
@@ -22301,7 +21891,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A335" s="23">
         <v>18</v>
       </c>
@@ -22345,7 +21935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A336" s="23">
         <v>18</v>
       </c>
@@ -22389,7 +21979,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A337" s="23">
         <v>18</v>
       </c>
@@ -22433,7 +22023,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A338" s="23">
         <v>18</v>
       </c>
@@ -22477,7 +22067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A339" s="23">
         <v>18</v>
       </c>
@@ -22521,7 +22111,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A340" s="23">
         <v>17</v>
       </c>
@@ -22565,7 +22155,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A341" s="23">
         <v>17</v>
       </c>
@@ -22609,7 +22199,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A342" s="23">
         <v>17</v>
       </c>
@@ -22653,7 +22243,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A343" s="6">
         <v>19</v>
       </c>
@@ -22697,7 +22287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A344" s="6">
         <v>19</v>
       </c>
@@ -22741,7 +22331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A345" s="6">
         <v>19</v>
       </c>
@@ -22785,7 +22375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A346" s="6">
         <v>19</v>
       </c>
@@ -22829,7 +22419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A347" s="6">
         <v>19</v>
       </c>
@@ -22873,7 +22463,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A348" s="6">
         <v>19</v>
       </c>
@@ -22917,7 +22507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A349" s="6">
         <v>19</v>
       </c>
@@ -22961,7 +22551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A350" s="6">
         <v>19</v>
       </c>
@@ -23005,7 +22595,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A351" s="6">
         <v>19</v>
       </c>
@@ -23049,7 +22639,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A352" s="6">
         <v>19</v>
       </c>
@@ -23093,7 +22683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A353" s="6">
         <v>19</v>
       </c>
@@ -23137,7 +22727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A354" s="23">
         <v>17</v>
       </c>
@@ -23178,6 +22768,94 @@
         <v>395</v>
       </c>
       <c r="S354" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A355" s="23">
+        <v>17</v>
+      </c>
+      <c r="B355" s="23">
+        <v>8259</v>
+      </c>
+      <c r="C355" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="D355" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E355" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="F355" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G355" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H355" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I355" s="47">
+        <v>45839</v>
+      </c>
+      <c r="J355" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="K355" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="L355" s="48" t="s">
+        <v>638</v>
+      </c>
+      <c r="R355" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="S355" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A356" s="23">
+        <v>17</v>
+      </c>
+      <c r="B356" s="23">
+        <v>8259</v>
+      </c>
+      <c r="C356" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="D356" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E356" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="F356" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G356" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H356" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I356" s="47">
+        <v>45839</v>
+      </c>
+      <c r="J356" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="K356" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="L356" s="48" t="s">
+        <v>639</v>
+      </c>
+      <c r="R356" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="S356" s="44" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23187,19 +22865,19 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="S3:S354">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+  <conditionalFormatting sqref="S3:S356">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"Solucionado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>"Pendente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="cellIs" dxfId="17" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="554" operator="equal">
       <formula>"Solucionado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="555" operator="equal">
       <formula>"Pendente"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23213,7 +22891,7 @@
           <x14:formula1>
             <xm:f>'Lista Suspensa'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J71 J73:J250 J270:J354</xm:sqref>
+          <xm:sqref>J3:J71 J73:J250 J270:J356</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
@@ -23231,13 +22909,13 @@
           <x14:formula1>
             <xm:f>'Lista Suspensa'!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>X3 S3:S250 S257:S354</xm:sqref>
+          <xm:sqref>X3 S3:S250 S257:S356</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>'Lista Suspensa'!$E$2:$E$26</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K61 K63 K108 K199:K204 K119:K196 K210:K250 K270:K354</xm:sqref>
+          <xm:sqref>K4:K61 K63 K108 K199:K204 K119:K196 K210:K250 K270:K356</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
@@ -23259,24 +22937,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F82685D-857B-4280-A906-15261EAA43E1}">
-  <dimension ref="B2:K23"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="57" t="s">
         <v>4</v>
       </c>
@@ -23302,13 +22981,19 @@
         <v>617</v>
       </c>
       <c r="J2" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="L2" s="57" t="s">
         <v>521</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="M2" s="57" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="22">
         <v>1</v>
       </c>
@@ -23333,14 +23018,18 @@
       <c r="I3" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="L3" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="M3" s="54" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="22">
         <v>2</v>
       </c>
@@ -23365,14 +23054,16 @@
       <c r="I4" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="M4" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="22">
         <v>3</v>
       </c>
@@ -23397,14 +23088,16 @@
       <c r="I5" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="M5" s="54" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="22">
         <v>4</v>
       </c>
@@ -23429,14 +23122,16 @@
       <c r="I6" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="M6" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="22">
         <v>5</v>
       </c>
@@ -23461,14 +23156,16 @@
       <c r="I7" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="22">
         <v>6</v>
       </c>
@@ -23493,14 +23190,16 @@
       <c r="I8" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="M8" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="22">
         <v>7</v>
       </c>
@@ -23525,14 +23224,16 @@
       <c r="I9" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="M9" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="22">
         <v>8</v>
       </c>
@@ -23557,14 +23258,16 @@
       <c r="I10" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="M10" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="22">
         <v>9</v>
       </c>
@@ -23589,14 +23292,16 @@
       <c r="I11" s="54" t="s">
         <v>623</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="M11" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="22">
         <v>10</v>
       </c>
@@ -23621,14 +23326,16 @@
       <c r="I12" s="54" t="s">
         <v>623</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="M12" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="22">
         <v>11</v>
       </c>
@@ -23653,14 +23360,16 @@
       <c r="I13" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="22">
         <v>12</v>
       </c>
@@ -23685,14 +23394,16 @@
       <c r="I14" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J14" s="53" t="s">
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="M14" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="22">
         <v>13</v>
       </c>
@@ -23717,14 +23428,16 @@
       <c r="I15" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K15" s="53" t="s">
+      <c r="M15" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="22">
         <v>14</v>
       </c>
@@ -23749,14 +23462,16 @@
       <c r="I16" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="J16" s="53" t="s">
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="22">
         <v>15</v>
       </c>
@@ -23781,14 +23496,16 @@
       <c r="I17" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="M17" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="22">
         <v>16</v>
       </c>
@@ -23813,14 +23530,16 @@
       <c r="I18" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K18" s="53" t="s">
+      <c r="M18" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="22">
         <v>17</v>
       </c>
@@ -23845,14 +23564,16 @@
       <c r="I19" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K19" s="53" t="s">
+      <c r="M19" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="22">
         <v>18</v>
       </c>
@@ -23877,14 +23598,16 @@
       <c r="I20" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K20" s="53" t="s">
+      <c r="M20" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="22">
         <v>19</v>
       </c>
@@ -23909,15 +23632,17 @@
       <c r="I21" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J21" s="53" t="s">
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="K21" s="53" t="s">
+      <c r="M21" s="53" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="62" t="s">
         <v>623</v>
       </c>
@@ -23932,23 +23657,25 @@
       <c r="I23" s="63"/>
       <c r="J23" s="63"/>
       <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E23:M23"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="59" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -23962,22 +23689,22 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="59.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.1796875" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -24006,7 +23733,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="5">
         <v>5115</v>
       </c>
@@ -24033,7 +23760,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="5">
         <v>7623</v>
       </c>
@@ -24060,7 +23787,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>5762</v>
       </c>
@@ -24085,7 +23812,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>6564</v>
       </c>
@@ -24112,7 +23839,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>6228</v>
       </c>
@@ -24137,7 +23864,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>6565</v>
       </c>
@@ -24162,7 +23889,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="23">
         <v>8258</v>
       </c>
@@ -24189,7 +23916,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" s="28" t="s">
         <v>1</v>
       </c>
@@ -24206,7 +23933,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" s="5">
         <v>5115</v>
       </c>
@@ -24223,7 +23950,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18" s="5">
         <v>7623</v>
       </c>
@@ -24240,7 +23967,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" s="5">
         <v>5762</v>
       </c>
@@ -24251,7 +23978,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" s="5">
         <v>6564</v>
       </c>
@@ -24268,7 +23995,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C21" s="5">
         <v>6228</v>
       </c>
@@ -24285,7 +24012,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22" s="5">
         <v>6565</v>
       </c>
@@ -24302,7 +24029,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23" s="5">
         <v>7622</v>
       </c>
@@ -24313,7 +24040,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="5">
         <v>7621</v>
       </c>
@@ -24324,7 +24051,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" s="5">
         <v>5604</v>
       </c>
@@ -24335,7 +24062,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" s="5">
         <v>6277</v>
       </c>
@@ -24346,7 +24073,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="5">
         <v>8258</v>
       </c>
@@ -24357,7 +24084,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C28" s="5">
         <v>9966</v>
       </c>
@@ -24370,16 +24097,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B1048576 B2:B9">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C15 C2:C9 C29:C1048576">
-    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E15 D2:D9 D29:E1048576">
-    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E15 D29:E1048576">
-    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -24393,16 +24120,16 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G1" s="64" t="s">
         <v>413</v>
       </c>
@@ -24410,7 +24137,7 @@
       <c r="I1" s="64"/>
       <c r="J1" s="64"/>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -24445,7 +24172,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -24480,7 +24207,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -24513,7 +24240,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -24536,7 +24263,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -24559,7 +24286,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -24582,7 +24309,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -24605,7 +24332,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -24628,7 +24355,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -24651,7 +24378,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -24674,7 +24401,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -24697,7 +24424,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -24720,7 +24447,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -24743,7 +24470,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -24766,7 +24493,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -24789,7 +24516,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -24812,7 +24539,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -24840,16 +24567,16 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B18">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17 F2:K2">
-    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E18 F2:K2">
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -24866,18 +24593,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -24897,7 +24624,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>407</v>
       </c>
@@ -24917,7 +24644,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -24937,7 +24664,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>406</v>
       </c>
@@ -24948,7 +24675,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -24956,7 +24683,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>71</v>
       </c>
@@ -24964,7 +24691,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>72</v>
       </c>
@@ -24972,63 +24699,63 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:13" x14ac:dyDescent="0.35">
       <c r="M26" s="26"/>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:13" x14ac:dyDescent="0.35">
       <c r="M28" s="26"/>
     </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:13" x14ac:dyDescent="0.35">
       <c r="M30" s="27"/>
     </row>
   </sheetData>

--- a/Base de Dados_Montagem Final_H23_2025.xlsx
+++ b/Base de Dados_Montagem Final_H23_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\H23 - Montagem Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459001FD-CD23-423B-B463-287D4A13BC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A6B767-21CB-4AB2-BFA4-59F979200E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD_H23" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD_H23!$A$2:$V$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NCs_H23!$A$2:$X$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NCs_H23!$A$2:$X$357</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5194" uniqueCount="643">
   <si>
     <t>Data Recebimento</t>
   </si>
@@ -2233,6 +2233,9 @@
   </si>
   <si>
     <t>0117 / 0130</t>
+  </si>
+  <si>
+    <t>Ponteira do Escape saiu durante o taxi após o pouso</t>
   </si>
 </sst>
 </file>
@@ -2621,6 +2624,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2641,18 +2656,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3219,76 +3222,76 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" customWidth="1"/>
-    <col min="19" max="19" width="15.1796875" customWidth="1"/>
-    <col min="20" max="20" width="15.1796875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1796875" customWidth="1"/>
-    <col min="25" max="25" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.453125" customWidth="1"/>
-    <col min="27" max="27" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:27" s="10" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="59" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-    </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+    </row>
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -3527,7 +3530,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -3600,7 +3603,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -3673,7 +3676,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -3746,7 +3749,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -3819,7 +3822,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -3892,7 +3895,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -3965,7 +3968,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -4038,7 +4041,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -4111,7 +4114,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -4127,7 +4130,7 @@
       <c r="E13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="59" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="22" t="s">
@@ -4184,7 +4187,7 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -4257,7 +4260,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -4330,7 +4333,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -4346,7 +4349,7 @@
       <c r="E16" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="59" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="22" t="s">
@@ -4403,7 +4406,7 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="6"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -4476,7 +4479,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="6"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -4549,7 +4552,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -4622,7 +4625,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -4695,7 +4698,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -4744,7 +4747,7 @@
       <c r="P21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q21" s="65">
+      <c r="Q21" s="58">
         <v>45846</v>
       </c>
       <c r="R21" s="20" t="s">
@@ -4768,7 +4771,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -4784,7 +4787,7 @@
       <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="59" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -4811,7 +4814,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -4827,7 +4830,7 @@
       <c r="E23" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="59" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -4854,7 +4857,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -4870,7 +4873,7 @@
       <c r="E24" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="59" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -4897,7 +4900,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -4913,7 +4916,7 @@
       <c r="E25" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="59" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -4940,7 +4943,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -4975,7 +4978,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -5052,75 +5055,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:X356"/>
+  <dimension ref="A1:X358"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="R354" sqref="R354:S356"/>
+      <selection pane="bottomLeft" activeCell="R357" sqref="R357:R358"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="65" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="23"/>
+    <col min="20" max="20" width="26.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-    </row>
-    <row r="2" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+    </row>
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>7</v>
       </c>
@@ -5254,7 +5257,7 @@
       </c>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>7</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>7</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>7</v>
       </c>
@@ -5431,7 +5434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>7</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>7</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>7</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>7</v>
       </c>
@@ -5903,7 +5906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>7</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -6021,7 +6024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>7</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>7</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>7</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>7</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>7</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>7</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>7</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>7</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>8</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>8</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>8</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>8</v>
       </c>
@@ -6669,7 +6672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>8</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>8</v>
       </c>
@@ -6772,7 +6775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>8</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>8</v>
       </c>
@@ -6890,7 +6893,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>8</v>
       </c>
@@ -6949,7 +6952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>8</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>8</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>8</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>8</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>8</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>8</v>
       </c>
@@ -7303,7 +7306,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>8</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>8</v>
       </c>
@@ -7421,7 +7424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>8</v>
       </c>
@@ -7480,7 +7483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>10</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>10</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>10</v>
       </c>
@@ -7713,7 +7716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>10</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>10</v>
       </c>
@@ -7801,7 +7804,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>10</v>
       </c>
@@ -7845,7 +7848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>10</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>10</v>
       </c>
@@ -7945,7 +7948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>10</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>10</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>10</v>
       </c>
@@ -8077,7 +8080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>10</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>10</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>10</v>
       </c>
@@ -8251,7 +8254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>10</v>
       </c>
@@ -8295,7 +8298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>10</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>10</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>10</v>
       </c>
@@ -8466,7 +8469,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>10</v>
       </c>
@@ -8522,7 +8525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>10</v>
       </c>
@@ -8581,7 +8584,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>7</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>7</v>
       </c>
@@ -8693,7 +8696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>7</v>
       </c>
@@ -8749,7 +8752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>8</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>8</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>8</v>
       </c>
@@ -8926,7 +8929,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>8</v>
       </c>
@@ -8973,7 +8976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>8</v>
       </c>
@@ -9032,7 +9035,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>8</v>
       </c>
@@ -9079,7 +9082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>8</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>8</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>8</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>8</v>
       </c>
@@ -9267,7 +9270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>8</v>
       </c>
@@ -9314,7 +9317,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>9</v>
       </c>
@@ -9373,7 +9376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>9</v>
       </c>
@@ -9432,7 +9435,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>9</v>
       </c>
@@ -9491,7 +9494,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>9</v>
       </c>
@@ -9550,7 +9553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>9</v>
       </c>
@@ -9609,7 +9612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>9</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>9</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>9</v>
       </c>
@@ -9786,7 +9789,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>9</v>
       </c>
@@ -9845,7 +9848,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>9</v>
       </c>
@@ -9904,7 +9907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>9</v>
       </c>
@@ -9963,7 +9966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>9</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>9</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>9</v>
       </c>
@@ -10128,7 +10131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>9</v>
       </c>
@@ -10175,7 +10178,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>9</v>
       </c>
@@ -10234,7 +10237,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>9</v>
       </c>
@@ -10293,7 +10296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>9</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>9</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>9</v>
       </c>
@@ -10458,7 +10461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>9</v>
       </c>
@@ -10517,7 +10520,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>9</v>
       </c>
@@ -10576,7 +10579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>9</v>
       </c>
@@ -10635,7 +10638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>9</v>
       </c>
@@ -10694,7 +10697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>9</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>9</v>
       </c>
@@ -10800,7 +10803,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>9</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>9</v>
       </c>
@@ -10906,7 +10909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>9</v>
       </c>
@@ -10965,7 +10968,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>9</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>9</v>
       </c>
@@ -11071,7 +11074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>10</v>
       </c>
@@ -11130,7 +11133,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>10</v>
       </c>
@@ -11189,7 +11192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>10</v>
       </c>
@@ -11233,10 +11236,10 @@
         <v>188</v>
       </c>
       <c r="S111" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>10</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>10</v>
       </c>
@@ -11354,7 +11357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>10</v>
       </c>
@@ -11413,7 +11416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>10</v>
       </c>
@@ -11457,10 +11460,10 @@
         <v>188</v>
       </c>
       <c r="S115" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>10</v>
       </c>
@@ -11519,7 +11522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>10</v>
       </c>
@@ -11563,10 +11566,10 @@
         <v>188</v>
       </c>
       <c r="S117" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>10</v>
       </c>
@@ -11625,7 +11628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>7</v>
       </c>
@@ -11684,7 +11687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>7</v>
       </c>
@@ -11743,7 +11746,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>7</v>
       </c>
@@ -11802,7 +11805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>7</v>
       </c>
@@ -11861,7 +11864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>7</v>
       </c>
@@ -11920,7 +11923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>12</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>12</v>
       </c>
@@ -12038,7 +12041,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>12</v>
       </c>
@@ -12097,7 +12100,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>12</v>
       </c>
@@ -12156,7 +12159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>12</v>
       </c>
@@ -12215,7 +12218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>12</v>
       </c>
@@ -12274,7 +12277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>12</v>
       </c>
@@ -12333,7 +12336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>12</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>12</v>
       </c>
@@ -12451,7 +12454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>12</v>
       </c>
@@ -12510,7 +12513,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>12</v>
       </c>
@@ -12569,7 +12572,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>12</v>
       </c>
@@ -12628,7 +12631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>12</v>
       </c>
@@ -12687,7 +12690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>12</v>
       </c>
@@ -12746,7 +12749,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>12</v>
       </c>
@@ -12805,7 +12808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>12</v>
       </c>
@@ -12864,7 +12867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>12</v>
       </c>
@@ -12923,7 +12926,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>12</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>11</v>
       </c>
@@ -13029,7 +13032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>12</v>
       </c>
@@ -13088,7 +13091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>12</v>
       </c>
@@ -13147,7 +13150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>12</v>
       </c>
@@ -13189,7 +13192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>12</v>
       </c>
@@ -13236,7 +13239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>12</v>
       </c>
@@ -13295,7 +13298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>7</v>
       </c>
@@ -13354,7 +13357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>7</v>
       </c>
@@ -13413,7 +13416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>7</v>
       </c>
@@ -13472,7 +13475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>7</v>
       </c>
@@ -13531,7 +13534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>7</v>
       </c>
@@ -13590,7 +13593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>7</v>
       </c>
@@ -13649,7 +13652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>7</v>
       </c>
@@ -13708,7 +13711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>12</v>
       </c>
@@ -13767,7 +13770,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>13</v>
       </c>
@@ -13811,7 +13814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>13</v>
       </c>
@@ -13855,7 +13858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>13</v>
       </c>
@@ -13899,7 +13902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>13</v>
       </c>
@@ -13943,7 +13946,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>13</v>
       </c>
@@ -13987,7 +13990,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>13</v>
       </c>
@@ -14031,7 +14034,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>13</v>
       </c>
@@ -14075,7 +14078,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>13</v>
       </c>
@@ -14119,7 +14122,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>13</v>
       </c>
@@ -14163,7 +14166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>13</v>
       </c>
@@ -14207,7 +14210,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>13</v>
       </c>
@@ -14251,7 +14254,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>13</v>
       </c>
@@ -14295,7 +14298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>13</v>
       </c>
@@ -14339,7 +14342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>13</v>
       </c>
@@ -14389,7 +14392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>13</v>
       </c>
@@ -14439,7 +14442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>13</v>
       </c>
@@ -14486,7 +14489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>13</v>
       </c>
@@ -14533,7 +14536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>13</v>
       </c>
@@ -14577,7 +14580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>13</v>
       </c>
@@ -14618,10 +14621,10 @@
         <v>395</v>
       </c>
       <c r="S174" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>13</v>
       </c>
@@ -14665,7 +14668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>15</v>
       </c>
@@ -14709,7 +14712,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>15</v>
       </c>
@@ -14768,7 +14771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>15</v>
       </c>
@@ -14827,7 +14830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>15</v>
       </c>
@@ -14886,7 +14889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>15</v>
       </c>
@@ -14930,7 +14933,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>15</v>
       </c>
@@ -14974,7 +14977,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>13</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>7</v>
       </c>
@@ -15071,7 +15074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>6</v>
       </c>
@@ -15121,7 +15124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>10</v>
       </c>
@@ -15168,7 +15171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>9</v>
       </c>
@@ -15212,10 +15215,10 @@
         <v>395</v>
       </c>
       <c r="S186" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>9</v>
       </c>
@@ -15259,10 +15262,10 @@
         <v>395</v>
       </c>
       <c r="S187" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>9</v>
       </c>
@@ -15306,10 +15309,10 @@
         <v>395</v>
       </c>
       <c r="S188" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>9</v>
       </c>
@@ -15353,10 +15356,10 @@
         <v>395</v>
       </c>
       <c r="S189" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>15</v>
       </c>
@@ -15403,7 +15406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>15</v>
       </c>
@@ -15450,7 +15453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>15</v>
       </c>
@@ -15497,7 +15500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>15</v>
       </c>
@@ -15544,7 +15547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>15</v>
       </c>
@@ -15591,7 +15594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>15</v>
       </c>
@@ -15638,7 +15641,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>15</v>
       </c>
@@ -15685,7 +15688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>15</v>
       </c>
@@ -15732,7 +15735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>8</v>
       </c>
@@ -15779,7 +15782,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>15</v>
       </c>
@@ -15826,7 +15829,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>15</v>
       </c>
@@ -15873,7 +15876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>15</v>
       </c>
@@ -15920,7 +15923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>15</v>
       </c>
@@ -15967,7 +15970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>15</v>
       </c>
@@ -16014,7 +16017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>15</v>
       </c>
@@ -16061,7 +16064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>8</v>
       </c>
@@ -16105,7 +16108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>8</v>
       </c>
@@ -16149,7 +16152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>8</v>
       </c>
@@ -16202,7 +16205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>8</v>
       </c>
@@ -16249,7 +16252,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>8</v>
       </c>
@@ -16296,7 +16299,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>8</v>
       </c>
@@ -16343,7 +16346,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>8</v>
       </c>
@@ -16390,7 +16393,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>8</v>
       </c>
@@ -16437,7 +16440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>8</v>
       </c>
@@ -16484,7 +16487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>12</v>
       </c>
@@ -16531,7 +16534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>12</v>
       </c>
@@ -16578,7 +16581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>12</v>
       </c>
@@ -16622,7 +16625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>12</v>
       </c>
@@ -16669,7 +16672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>9</v>
       </c>
@@ -16713,10 +16716,10 @@
         <v>395</v>
       </c>
       <c r="S218" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>9</v>
       </c>
@@ -16760,10 +16763,10 @@
         <v>395</v>
       </c>
       <c r="S219" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>9</v>
       </c>
@@ -16807,10 +16810,10 @@
         <v>395</v>
       </c>
       <c r="S220" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>12</v>
       </c>
@@ -16854,7 +16857,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>12</v>
       </c>
@@ -16898,7 +16901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>12</v>
       </c>
@@ -16942,7 +16945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>10</v>
       </c>
@@ -16983,10 +16986,10 @@
         <v>395</v>
       </c>
       <c r="S224" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>10</v>
       </c>
@@ -17027,10 +17030,10 @@
         <v>395</v>
       </c>
       <c r="S225" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>10</v>
       </c>
@@ -17071,10 +17074,10 @@
         <v>395</v>
       </c>
       <c r="S226" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>10</v>
       </c>
@@ -17115,10 +17118,10 @@
         <v>395</v>
       </c>
       <c r="S227" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>10</v>
       </c>
@@ -17159,10 +17162,10 @@
         <v>395</v>
       </c>
       <c r="S228" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>10</v>
       </c>
@@ -17203,10 +17206,10 @@
         <v>395</v>
       </c>
       <c r="S229" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>10</v>
       </c>
@@ -17247,10 +17250,10 @@
         <v>395</v>
       </c>
       <c r="S230" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>10</v>
       </c>
@@ -17291,10 +17294,10 @@
         <v>395</v>
       </c>
       <c r="S231" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>10</v>
       </c>
@@ -17335,10 +17338,10 @@
         <v>395</v>
       </c>
       <c r="S232" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>11</v>
       </c>
@@ -17377,7 +17380,7 @@
       </c>
       <c r="S233" s="44"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>11</v>
       </c>
@@ -17424,7 +17427,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>11</v>
       </c>
@@ -17468,7 +17471,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>11</v>
       </c>
@@ -17512,7 +17515,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>11</v>
       </c>
@@ -17556,7 +17559,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>11</v>
       </c>
@@ -17600,7 +17603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>11</v>
       </c>
@@ -17644,7 +17647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>11</v>
       </c>
@@ -17688,7 +17691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>11</v>
       </c>
@@ -17732,7 +17735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>11</v>
       </c>
@@ -17776,7 +17779,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>11</v>
       </c>
@@ -17820,7 +17823,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>11</v>
       </c>
@@ -17864,7 +17867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>11</v>
       </c>
@@ -17908,7 +17911,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>11</v>
       </c>
@@ -17952,7 +17955,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>11</v>
       </c>
@@ -17996,7 +17999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>11</v>
       </c>
@@ -18040,7 +18043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>11</v>
       </c>
@@ -18084,7 +18087,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>11</v>
       </c>
@@ -18128,7 +18131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>9</v>
       </c>
@@ -18172,10 +18175,10 @@
         <v>395</v>
       </c>
       <c r="S251" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>9</v>
       </c>
@@ -18219,10 +18222,10 @@
         <v>395</v>
       </c>
       <c r="S252" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>9</v>
       </c>
@@ -18266,10 +18269,10 @@
         <v>395</v>
       </c>
       <c r="S253" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>9</v>
       </c>
@@ -18313,10 +18316,10 @@
         <v>395</v>
       </c>
       <c r="S254" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>9</v>
       </c>
@@ -18360,10 +18363,10 @@
         <v>395</v>
       </c>
       <c r="S255" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>9</v>
       </c>
@@ -18407,10 +18410,10 @@
         <v>395</v>
       </c>
       <c r="S256" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>13</v>
       </c>
@@ -18457,7 +18460,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>13</v>
       </c>
@@ -18504,7 +18507,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>13</v>
       </c>
@@ -18551,7 +18554,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>13</v>
       </c>
@@ -18598,7 +18601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>13</v>
       </c>
@@ -18645,7 +18648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>13</v>
       </c>
@@ -18692,7 +18695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>13</v>
       </c>
@@ -18739,7 +18742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>13</v>
       </c>
@@ -18786,7 +18789,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>13</v>
       </c>
@@ -18833,7 +18836,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>13</v>
       </c>
@@ -18880,7 +18883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>13</v>
       </c>
@@ -18927,7 +18930,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>13</v>
       </c>
@@ -18971,7 +18974,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>13</v>
       </c>
@@ -19018,7 +19021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>15</v>
       </c>
@@ -19065,7 +19068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>11</v>
       </c>
@@ -19109,7 +19112,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>11</v>
       </c>
@@ -19153,7 +19156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>11</v>
       </c>
@@ -19197,7 +19200,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>11</v>
       </c>
@@ -19241,7 +19244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>11</v>
       </c>
@@ -19285,7 +19288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>11</v>
       </c>
@@ -19329,7 +19332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>11</v>
       </c>
@@ -19373,7 +19376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>11</v>
       </c>
@@ -19417,7 +19420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>11</v>
       </c>
@@ -19461,7 +19464,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>13</v>
       </c>
@@ -19505,7 +19508,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>13</v>
       </c>
@@ -19549,7 +19552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>13</v>
       </c>
@@ -19593,7 +19596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>15</v>
       </c>
@@ -19637,7 +19640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>15</v>
       </c>
@@ -19681,7 +19684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>15</v>
       </c>
@@ -19725,7 +19728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>15</v>
       </c>
@@ -19769,7 +19772,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>15</v>
       </c>
@@ -19813,7 +19816,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>15</v>
       </c>
@@ -19857,7 +19860,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>15</v>
       </c>
@@ -19901,7 +19904,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>15</v>
       </c>
@@ -19945,7 +19948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>15</v>
       </c>
@@ -19989,7 +19992,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>11</v>
       </c>
@@ -20033,7 +20036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>11</v>
       </c>
@@ -20077,7 +20080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>11</v>
       </c>
@@ -20121,7 +20124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>11</v>
       </c>
@@ -20165,7 +20168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>11</v>
       </c>
@@ -20209,7 +20212,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>11</v>
       </c>
@@ -20253,7 +20256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>11</v>
       </c>
@@ -20297,7 +20300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>11</v>
       </c>
@@ -20341,7 +20344,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>11</v>
       </c>
@@ -20385,7 +20388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>11</v>
       </c>
@@ -20429,7 +20432,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>11</v>
       </c>
@@ -20468,7 +20471,7 @@
       </c>
       <c r="S302" s="44"/>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>11</v>
       </c>
@@ -20512,7 +20515,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>15</v>
       </c>
@@ -20556,7 +20559,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>15</v>
       </c>
@@ -20600,7 +20603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>15</v>
       </c>
@@ -20644,7 +20647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>9</v>
       </c>
@@ -20688,10 +20691,10 @@
         <v>395</v>
       </c>
       <c r="S307" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>9</v>
       </c>
@@ -20735,10 +20738,10 @@
         <v>395</v>
       </c>
       <c r="S308" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>15</v>
       </c>
@@ -20782,7 +20785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>15</v>
       </c>
@@ -20826,7 +20829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>16</v>
       </c>
@@ -20870,7 +20873,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>16</v>
       </c>
@@ -20914,7 +20917,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>16</v>
       </c>
@@ -20958,7 +20961,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>16</v>
       </c>
@@ -21002,7 +21005,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>16</v>
       </c>
@@ -21046,7 +21049,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>15</v>
       </c>
@@ -21090,7 +21093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>15</v>
       </c>
@@ -21134,7 +21137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>15</v>
       </c>
@@ -21178,7 +21181,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>10</v>
       </c>
@@ -21219,10 +21222,10 @@
         <v>395</v>
       </c>
       <c r="S319" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>10</v>
       </c>
@@ -21263,10 +21266,10 @@
         <v>395</v>
       </c>
       <c r="S320" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>10</v>
       </c>
@@ -21307,10 +21310,10 @@
         <v>395</v>
       </c>
       <c r="S321" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>17</v>
       </c>
@@ -21363,7 +21366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>17</v>
       </c>
@@ -21407,7 +21410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>17</v>
       </c>
@@ -21451,7 +21454,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="22">
         <v>14</v>
       </c>
@@ -21495,7 +21498,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="22">
         <v>14</v>
       </c>
@@ -21539,7 +21542,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="22">
         <v>14</v>
       </c>
@@ -21583,7 +21586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="22">
         <v>14</v>
       </c>
@@ -21627,7 +21630,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="22">
         <v>14</v>
       </c>
@@ -21671,7 +21674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>18</v>
       </c>
@@ -21715,7 +21718,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>18</v>
       </c>
@@ -21759,7 +21762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>18</v>
       </c>
@@ -21803,7 +21806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>18</v>
       </c>
@@ -21847,7 +21850,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>18</v>
       </c>
@@ -21891,7 +21894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>18</v>
       </c>
@@ -21935,7 +21938,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>18</v>
       </c>
@@ -21979,7 +21982,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>18</v>
       </c>
@@ -22023,7 +22026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>18</v>
       </c>
@@ -22067,7 +22070,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>18</v>
       </c>
@@ -22111,7 +22114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>17</v>
       </c>
@@ -22155,7 +22158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>17</v>
       </c>
@@ -22199,7 +22202,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>17</v>
       </c>
@@ -22243,7 +22246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>19</v>
       </c>
@@ -22287,7 +22290,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>19</v>
       </c>
@@ -22331,7 +22334,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>19</v>
       </c>
@@ -22375,7 +22378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>19</v>
       </c>
@@ -22419,7 +22422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>19</v>
       </c>
@@ -22463,7 +22466,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>19</v>
       </c>
@@ -22507,7 +22510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>19</v>
       </c>
@@ -22551,7 +22554,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>19</v>
       </c>
@@ -22595,7 +22598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>19</v>
       </c>
@@ -22639,7 +22642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>19</v>
       </c>
@@ -22683,7 +22686,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>19</v>
       </c>
@@ -22727,33 +22730,33 @@
         <v>84</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A354" s="23">
-        <v>17</v>
-      </c>
-      <c r="B354" s="23">
-        <v>8259</v>
-      </c>
-      <c r="C354" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="D354" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E354" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="F354" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G354" s="23" t="s">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="6">
+        <v>19</v>
+      </c>
+      <c r="B354" s="5">
+        <v>8261</v>
+      </c>
+      <c r="C354" s="46" t="s">
+        <v>615</v>
+      </c>
+      <c r="D354" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F354" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G354" s="6" t="s">
         <v>86</v>
       </c>
       <c r="H354" s="23" t="s">
         <v>88</v>
       </c>
       <c r="I354" s="47">
-        <v>45839</v>
+        <v>45838</v>
       </c>
       <c r="J354" s="23" t="s">
         <v>406</v>
@@ -22762,16 +22765,11 @@
         <v>189</v>
       </c>
       <c r="L354" s="48" t="s">
-        <v>637</v>
-      </c>
-      <c r="R354" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="S354" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+      <c r="S354" s="44"/>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>17</v>
       </c>
@@ -22806,7 +22804,7 @@
         <v>189</v>
       </c>
       <c r="L355" s="48" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R355" s="23" t="s">
         <v>395</v>
@@ -22815,7 +22813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>17</v>
       </c>
@@ -22850,7 +22848,7 @@
         <v>189</v>
       </c>
       <c r="L356" s="48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R356" s="23" t="s">
         <v>395</v>
@@ -22859,13 +22857,73 @@
         <v>84</v>
       </c>
     </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A357" s="23">
+        <v>17</v>
+      </c>
+      <c r="B357" s="23">
+        <v>8259</v>
+      </c>
+      <c r="C357" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="D357" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E357" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="F357" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G357" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H357" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I357" s="47">
+        <v>45839</v>
+      </c>
+      <c r="J357" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="K357" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="L357" s="48" t="s">
+        <v>639</v>
+      </c>
+      <c r="R357" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="S357" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R358" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:X342" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:X357" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="9.2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="18">
+      <filters>
+        <filter val="Pendente"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="S3:S356">
+  <conditionalFormatting sqref="S3:S357">
     <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"Solucionado"</formula>
     </cfRule>
@@ -22891,7 +22949,7 @@
           <x14:formula1>
             <xm:f>'Lista Suspensa'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J71 J73:J250 J270:J356</xm:sqref>
+          <xm:sqref>J3:J71 J73:J250 J270:J357</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
@@ -22909,13 +22967,13 @@
           <x14:formula1>
             <xm:f>'Lista Suspensa'!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>X3 S3:S250 S257:S356</xm:sqref>
+          <xm:sqref>X3 S3:S357</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>'Lista Suspensa'!$E$2:$E$26</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K61 K63 K108 K199:K204 K119:K196 K210:K250 K270:K356</xm:sqref>
+          <xm:sqref>K4:K61 K63 K108 K199:K204 K119:K196 K210:K250 K270:K357</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
@@ -22939,23 +22997,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F82685D-857B-4280-A906-15261EAA43E1}">
   <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="s">
         <v>4</v>
       </c>
@@ -22993,7 +23051,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="22">
         <v>1</v>
       </c>
@@ -23018,8 +23076,8 @@
       <c r="I3" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60" t="s">
         <v>641</v>
       </c>
       <c r="L3" s="54" t="s">
@@ -23029,7 +23087,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="22">
         <v>2</v>
       </c>
@@ -23054,8 +23112,8 @@
       <c r="I4" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="53" t="s">
         <v>620</v>
       </c>
@@ -23063,7 +23121,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="22">
         <v>3</v>
       </c>
@@ -23088,8 +23146,8 @@
       <c r="I5" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="54" t="s">
         <v>619</v>
       </c>
@@ -23097,7 +23155,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="22">
         <v>4</v>
       </c>
@@ -23122,8 +23180,8 @@
       <c r="I6" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="53" t="s">
         <v>620</v>
       </c>
@@ -23131,7 +23189,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>5</v>
       </c>
@@ -23165,7 +23223,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>6</v>
       </c>
@@ -23190,8 +23248,8 @@
       <c r="I8" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="53" t="s">
         <v>620</v>
       </c>
@@ -23199,7 +23257,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>7</v>
       </c>
@@ -23224,8 +23282,8 @@
       <c r="I9" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="53" t="s">
         <v>620</v>
       </c>
@@ -23233,7 +23291,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>8</v>
       </c>
@@ -23258,8 +23316,8 @@
       <c r="I10" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="53" t="s">
         <v>620</v>
       </c>
@@ -23267,7 +23325,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>9</v>
       </c>
@@ -23292,8 +23350,8 @@
       <c r="I11" s="54" t="s">
         <v>623</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="53" t="s">
         <v>620</v>
       </c>
@@ -23301,7 +23359,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>10</v>
       </c>
@@ -23326,8 +23384,8 @@
       <c r="I12" s="54" t="s">
         <v>623</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="53" t="s">
         <v>620</v>
       </c>
@@ -23335,7 +23393,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>11</v>
       </c>
@@ -23369,7 +23427,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="22">
         <v>12</v>
       </c>
@@ -23394,8 +23452,8 @@
       <c r="I14" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
       <c r="L14" s="53" t="s">
         <v>620</v>
       </c>
@@ -23403,7 +23461,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>13</v>
       </c>
@@ -23428,8 +23486,8 @@
       <c r="I15" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="53" t="s">
         <v>620</v>
       </c>
@@ -23437,7 +23495,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>14</v>
       </c>
@@ -23471,7 +23529,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>15</v>
       </c>
@@ -23496,8 +23554,8 @@
       <c r="I17" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
       <c r="L17" s="53" t="s">
         <v>620</v>
       </c>
@@ -23505,7 +23563,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="22">
         <v>16</v>
       </c>
@@ -23530,8 +23588,8 @@
       <c r="I18" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="53" t="s">
         <v>620</v>
       </c>
@@ -23539,7 +23597,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="22">
         <v>17</v>
       </c>
@@ -23564,8 +23622,8 @@
       <c r="I19" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
       <c r="L19" s="53" t="s">
         <v>620</v>
       </c>
@@ -23573,7 +23631,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="22">
         <v>18</v>
       </c>
@@ -23598,8 +23656,8 @@
       <c r="I20" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
       <c r="L20" s="53" t="s">
         <v>620</v>
       </c>
@@ -23607,7 +23665,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="22">
         <v>19</v>
       </c>
@@ -23632,8 +23690,8 @@
       <c r="I21" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="53" t="s">
         <v>620</v>
       </c>
@@ -23641,24 +23699,24 @@
         <v>620</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="62" t="s">
+    <row r="22" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67" t="s">
         <v>624</v>
       </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23689,22 +23747,22 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="59.1796875" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" s="39" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -23733,7 +23791,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>5115</v>
       </c>
@@ -23760,7 +23818,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>7623</v>
       </c>
@@ -23787,7 +23845,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>5762</v>
       </c>
@@ -23812,7 +23870,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>6564</v>
       </c>
@@ -23839,7 +23897,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>6228</v>
       </c>
@@ -23864,7 +23922,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>6565</v>
       </c>
@@ -23889,7 +23947,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="23">
         <v>8258</v>
       </c>
@@ -23916,7 +23974,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" s="28" t="s">
         <v>1</v>
       </c>
@@ -23933,7 +23991,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>5115</v>
       </c>
@@ -23950,7 +24008,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>7623</v>
       </c>
@@ -23967,7 +24025,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>5762</v>
       </c>
@@ -23978,7 +24036,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>6564</v>
       </c>
@@ -23995,7 +24053,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="5">
         <v>6228</v>
       </c>
@@ -24012,7 +24070,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="5">
         <v>6565</v>
       </c>
@@ -24029,7 +24087,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="5">
         <v>7622</v>
       </c>
@@ -24040,7 +24098,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="5">
         <v>7621</v>
       </c>
@@ -24051,7 +24109,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="5">
         <v>5604</v>
       </c>
@@ -24062,7 +24120,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="5">
         <v>6277</v>
       </c>
@@ -24073,7 +24131,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="5">
         <v>8258</v>
       </c>
@@ -24084,7 +24142,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="5">
         <v>9966</v>
       </c>
@@ -24120,24 +24178,24 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="9" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G1" s="64" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G1" s="68" t="s">
         <v>413</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-    </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -24172,7 +24230,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -24207,7 +24265,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -24240,7 +24298,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -24263,7 +24321,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -24286,7 +24344,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -24309,7 +24367,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -24332,7 +24390,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -24355,7 +24413,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -24378,7 +24436,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -24401,7 +24459,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -24424,7 +24482,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -24447,7 +24505,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -24470,7 +24528,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -24493,7 +24551,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -24516,7 +24574,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -24539,7 +24597,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -24593,18 +24651,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -24624,7 +24682,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>407</v>
       </c>
@@ -24644,7 +24702,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -24664,7 +24722,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>406</v>
       </c>
@@ -24675,7 +24733,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -24683,7 +24741,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>71</v>
       </c>
@@ -24691,7 +24749,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>72</v>
       </c>
@@ -24699,63 +24757,63 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M26" s="26"/>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M28" s="26"/>
     </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
       <c r="M30" s="27"/>
     </row>
   </sheetData>

--- a/Base de Dados_Montagem Final_H23_2025.xlsx
+++ b/Base de Dados_Montagem Final_H23_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\H23 - Montagem Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A6B767-21CB-4AB2-BFA4-59F979200E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318F830-9797-4F93-9D8D-A539CA302958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD_H23!$A$2:$V$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NCs_H23!$A$2:$X$357</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NCs_H23!$A$2:$X$358</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5055,13 +5055,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:X358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="R357" sqref="R357:R358"/>
     </sheetView>
@@ -5197,7 +5197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>7</v>
       </c>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>7</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>7</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>7</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>7</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>7</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>7</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>7</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>7</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>7</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>7</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>7</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>7</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>7</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>7</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>7</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>7</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>8</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>8</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>8</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>8</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>8</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>8</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>8</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>8</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>8</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>8</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>8</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>8</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>8</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>8</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>8</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>8</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>8</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>8</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>10</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>10</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>10</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>10</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>10</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>10</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>10</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>10</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>10</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>10</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>10</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>10</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>10</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>10</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>10</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>10</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>10</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>10</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>10</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>10</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>7</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>7</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>7</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>8</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>8</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>8</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>8</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>8</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>8</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>8</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>8</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>8</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>8</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>8</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>9</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>9</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>9</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>9</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>9</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>9</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>9</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>9</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>9</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>9</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>9</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>9</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>9</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>9</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>9</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>9</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>9</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>9</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>9</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>9</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>9</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>9</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>9</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>9</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>9</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>9</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>9</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>9</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>9</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>9</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>9</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>10</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>10</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>10</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>10</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>10</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>10</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>10</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>10</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>10</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>10</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>7</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>7</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>7</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>7</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>7</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>12</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>12</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>12</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>12</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>12</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>12</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>12</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>12</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>12</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>12</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>12</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>12</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>12</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>12</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>12</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>12</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>12</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>12</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>11</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>12</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>12</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>12</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>12</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>12</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>7</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>7</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>7</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>7</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>7</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>7</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>7</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>12</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>13</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>13</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>13</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>13</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>13</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>13</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>13</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>13</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>13</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>13</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>13</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>13</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>13</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>13</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>13</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>13</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>13</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>13</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>13</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>13</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>15</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>15</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>15</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>15</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>15</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>15</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>13</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>7</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>6</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>10</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>9</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>9</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>9</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>9</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>15</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>15</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>15</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>15</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>15</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>15</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>15</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>15</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>8</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>15</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>15</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>15</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>15</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>15</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>15</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>8</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>8</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>8</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>8</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>8</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>8</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>8</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>8</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>8</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>12</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>12</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>12</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>12</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>9</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>9</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>9</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>12</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>12</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>12</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>10</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>10</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>10</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>10</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>10</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>10</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>10</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>10</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>10</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>11</v>
       </c>
@@ -17380,7 +17380,7 @@
       </c>
       <c r="S233" s="44"/>
     </row>
-    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>11</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>11</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>11</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>11</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>11</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>11</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>11</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>11</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>11</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>11</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>11</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>11</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>11</v>
       </c>
@@ -17999,7 +17999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>11</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>11</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>9</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>9</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>9</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>9</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>9</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>9</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>13</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>13</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>13</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>13</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>13</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>13</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>13</v>
       </c>
@@ -18742,7 +18742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>13</v>
       </c>
@@ -18789,7 +18789,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>13</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>13</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>13</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>13</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>13</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>15</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>11</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>11</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>13</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>13</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>13</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>15</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>15</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>15</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>15</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>15</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>15</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>15</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>15</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>15</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>11</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>11</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>11</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>11</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>11</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>15</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>15</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>15</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>9</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>9</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>15</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>15</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>16</v>
       </c>
@@ -20961,7 +20961,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>16</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>15</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>15</v>
       </c>
@@ -21137,7 +21137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>15</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>10</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>10</v>
       </c>
@@ -21269,7 +21269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>10</v>
       </c>
@@ -21313,7 +21313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>17</v>
       </c>
@@ -21718,7 +21718,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>18</v>
       </c>
@@ -21762,7 +21762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>18</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>19</v>
       </c>
@@ -22907,18 +22907,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X357" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="9.2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="18">
-      <filters>
-        <filter val="Pendente"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:X358" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:X1"/>
   </mergeCells>
